--- a/supporting_files/ASV_table.xlsx
+++ b/supporting_files/ASV_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JTsuji\Research_General\manuscripts\2020_04_14_Ca_Chx_allophototropha_paper\02_edits\04_pre_submission\04_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JTsuji\Research_General\manuscripts\2020_04_14_Ca_Chx_allophototropha_paper\03_submission_to_Science\03_coauthor_edits\Ca-Chlorohelix-allophototropha-RCI\supporting_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375623F0-8C53-40DD-ADF1-DE826E33837E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D0D291-F1A5-4ED8-82B6-00D14E2C836F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -902,9 +904,6 @@
     <t>Ca. Chx. allophototropha</t>
   </si>
   <si>
-    <t>Ca. Chloroheliales L227-5C (100% match to genome)</t>
-  </si>
-  <si>
     <t>Ca. Chx. allophototropha (100% match to genome)</t>
   </si>
   <si>
@@ -917,7 +916,19 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ca. Chloroheliales L227-5C</t>
+    <t>Total counts</t>
+  </si>
+  <si>
+    <t>Worksheet 1 | Description of samples shown in the amplicon sequence variant (ASV) tables in Worksheets 2-3.</t>
+  </si>
+  <si>
+    <t>Worksheet 2 | Amplicon sequence variant (ASV) table showing the percent relative abundances of ASVs detected in early Chloroflexota enrichment cultures.</t>
+  </si>
+  <si>
+    <t>Worksheet 3 | Amplicon sequence variant (ASV) table showing the raw count values of ASVs detected in early Chloroflexota enrichment cultures.</t>
+  </si>
+  <si>
+    <t>Ca. Chloroheliaceae L227-5C</t>
   </si>
   <si>
     <r>
@@ -942,20 +953,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Chloroheliales L227-5C'. A metagenome from this culture is shown in Extended Data Figure 1.</t>
+      <t>. Chloroheliaceae L227-5C'. A metagenome from this culture is shown in Figure S1.</t>
     </r>
-  </si>
-  <si>
-    <t>Total counts</t>
-  </si>
-  <si>
-    <t>Worksheet 1 | Description of samples shown in the amplicon sequence variant (ASV) tables in Worksheets 2-3.</t>
-  </si>
-  <si>
-    <t>Worksheet 2 | Amplicon sequence variant (ASV) table showing the percent relative abundances of ASVs detected in early Chloroflexota enrichment cultures.</t>
-  </si>
-  <si>
-    <t>Worksheet 3 | Amplicon sequence variant (ASV) table showing the raw count values of ASVs detected in early Chloroflexota enrichment cultures.</t>
   </si>
   <si>
     <r>
@@ -980,8 +979,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Chx. allophototropha'. A metagenome from this culture is shown in Extended Data Figure 1.</t>
+      <t>. Chx. allophototropha'. A metagenome from this culture is shown in Figure S1.</t>
     </r>
+  </si>
+  <si>
+    <t>Ca. Chloroheliaceae L227-5C (100% match to genome)</t>
   </si>
 </sst>
 </file>
@@ -1891,24 +1893,24 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.734375" customWidth="1"/>
+    <col min="2" max="2" width="23.3125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.89453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1919,7 +1921,7 @@
         <v>289</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1927,10 +1929,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1960,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1998,7 +2000,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2018,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3759,7 +3761,7 @@
     </row>
     <row r="109" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B109">
         <v>5525</v>
@@ -3793,7 +3795,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3833,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3853,7 +3855,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5593,7 +5595,7 @@
     </row>
     <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B109">
         <f>SUM(B4:B107)</f>
